--- a/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\Diccionario base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C6A810-75DB-4BD3-AB1B-F55998BA4FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2388E2D3-5BC4-4699-8C34-B54C7C39FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="3" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="104">
   <si>
     <t>column name</t>
   </si>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,13 +1207,16 @@
       <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1457,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2211,6 +2214,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2431,14 +2442,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2449,6 +2452,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2467,23 +2487,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
   <ds:schemaRefs>

--- a/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2388E2D3-5BC4-4699-8C34-B54C7C39FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0069553-A391-401E-BEE3-02F248A30E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420D3FF-ED13-41A9-8DE4-2B36600C40CA}">
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2214,11 +2214,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2443,27 +2444,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2488,9 +2479,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>